--- a/TestCases and Assumptions.xlsx
+++ b/TestCases and Assumptions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\todo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\todo\ToDo_Manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>Test Cases</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Created By: Thenmozhi Singaravel</t>
+  </si>
+  <si>
+    <t>The application does not allow the user to create a task without entering a description.</t>
   </si>
 </sst>
 </file>
@@ -142,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -324,11 +327,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -351,6 +367,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,7 +724,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="A9" s="12">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -731,18 +750,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>10</v>
@@ -753,7 +772,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>10</v>
@@ -764,18 +783,18 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
-        <v>10</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>10</v>
@@ -786,7 +805,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>10</v>
@@ -797,18 +816,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
-        <v>13</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>10</v>
@@ -819,50 +838,61 @@
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14">
-        <v>15</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="16">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="C21" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B25" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
         <v>1</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14">
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="14">
         <v>2</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>11</v>
       </c>
     </row>
